--- a/artfynd/A 51396-2019.xlsx
+++ b/artfynd/A 51396-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,210 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112379125</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Lortmossen, Vstm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>531963</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6622561</v>
+      </c>
+      <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112379126</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Lortmossen, Vstm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>532036</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6622648</v>
+      </c>
+      <c r="S4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 51396-2019.xlsx
+++ b/artfynd/A 51396-2019.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112379125</v>
+        <v>112379126</v>
       </c>
       <c r="B3" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>531963</v>
+        <v>532036</v>
       </c>
       <c r="R3" t="n">
-        <v>6622561</v>
+        <v>6622648</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112379126</v>
+        <v>112379125</v>
       </c>
       <c r="B4" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>532036</v>
+        <v>531963</v>
       </c>
       <c r="R4" t="n">
-        <v>6622648</v>
+        <v>6622561</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
